--- a/static/assets/report.xlsx
+++ b/static/assets/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,51 +473,227 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12:12:33</t>
+          <t>20:15:48</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13-04-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12:12:44</t>
+          <t>13:27:26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13-04-2023</t>
+          <t>27-04-2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12:12:44</t>
+          <t>15:15:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27-04-2023</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15:16:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>27-04-2023</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15:17:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>27-04-2023</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19:57:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>27-04-2023</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19:57:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>27-04-2023</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19:57:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>27-04-2023</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19:58:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>27-04-2023</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19:58:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27-04-2023</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19:59:15</t>
         </is>
       </c>
     </row>

--- a/static/assets/report.xlsx
+++ b/static/assets/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,222 +463,222 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13-04-2023</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20:15:48</t>
+          <t>07:59:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>sheep</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14-04-2023</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13:27:26</t>
+          <t>08:00:40</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15:15:52</t>
+          <t>08:00:57</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15:16:03</t>
+          <t>08:01:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15:17:54</t>
+          <t>08:01:44</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
+          <t>03-05-2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19:57:43</t>
+          <t>09:14:13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
+          <t>03-05-2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19:57:47</t>
+          <t>10:59:32</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
+          <t>03-05-2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19:57:55</t>
+          <t>11:40:14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>sheep</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
+          <t>03-05-2023</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19:58:22</t>
+          <t>11:51:36</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
+          <t>03-05-2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19:58:43</t>
+          <t>11:52:01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -688,12 +688,188 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
+          <t>03-05-2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19:59:15</t>
+          <t>11:52:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>bear</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11:52:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11:52:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bear</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bear</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11:52:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11:52:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>bear</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11:52:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11:52:20</t>
         </is>
       </c>
     </row>

--- a/static/assets/report.xlsx
+++ b/static/assets/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,122 +458,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cow</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01-05-2023</t>
+          <t>03-05-2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>07:59:07</t>
+          <t>09:14:13</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01-05-2023</t>
+          <t>03-05-2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08:00:40</t>
+          <t>10:59:32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01-05-2023</t>
+          <t>03-05-2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>08:00:57</t>
+          <t>11:40:14</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>sheep</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01-05-2023</t>
+          <t>03-05-2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08:01:03</t>
+          <t>11:51:36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01-05-2023</t>
+          <t>03-05-2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>08:01:44</t>
+          <t>11:52:01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,19 +583,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:14:13</t>
+          <t>11:52:03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10:59:32</t>
+          <t>11:52:03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,19 +627,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11:40:14</t>
+          <t>11:52:07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -649,19 +649,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11:51:36</t>
+          <t>11:52:08</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,19 +671,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11:52:01</t>
+          <t>11:52:08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,19 +693,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11:52:03</t>
+          <t>11:52:13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,19 +715,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:52:03</t>
+          <t>11:52:13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11:52:07</t>
+          <t>11:52:16</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,19 +759,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11:52:08</t>
+          <t>11:52:20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,19 +781,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11:52:08</t>
+          <t>22:16:05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -803,19 +803,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11:52:13</t>
+          <t>22:24:58</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -825,19 +825,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11:52:13</t>
+          <t>22:34:41</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -847,29 +847,95 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11:52:16</t>
+          <t>22:45:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>sheep</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>horse</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>03-05-2023</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>11:52:20</t>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22:45:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>elephant</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22:45:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22:45:46</t>
         </is>
       </c>
     </row>

--- a/static/assets/report.xlsx
+++ b/static/assets/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,122 +458,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03-05-2023</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09:14:13</t>
+          <t>07:59:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>sheep</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03-05-2023</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10:59:32</t>
+          <t>08:00:40</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03-05-2023</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11:40:14</t>
+          <t>08:00:57</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03-05-2023</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11:51:36</t>
+          <t>08:01:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>03-05-2023</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11:52:01</t>
+          <t>08:01:44</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,19 +583,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11:52:03</t>
+          <t>11:52:01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -612,12 +612,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,19 +627,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11:52:07</t>
+          <t>11:52:03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -649,19 +649,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11:52:08</t>
+          <t>11:52:07</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -678,12 +678,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,19 +693,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11:52:13</t>
+          <t>11:52:08</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -722,12 +722,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11:52:16</t>
+          <t>11:52:13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,14 +759,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11:52:20</t>
+          <t>11:52:16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -781,14 +781,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22:16:05</t>
+          <t>11:52:20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22:24:58</t>
+          <t>22:16:05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -825,14 +825,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22:34:41</t>
+          <t>22:24:58</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -847,19 +847,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22:45:40</t>
+          <t>22:34:41</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -869,19 +869,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22:45:42</t>
+          <t>22:45:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>sheep</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22:45:43</t>
+          <t>22:45:42</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -913,29 +913,513 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22:45:45</t>
+          <t>22:45:43</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>elephant</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22:45:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>horse</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>03-05-2023</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>22:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>09:14:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10:59:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11:40:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>sheep</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11:51:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12-05-2023</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11:22:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>bear</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>12-05-2023</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cow</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12:59:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12:59:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cow</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12:59:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13:00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>bear</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13:00:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>elephant</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13:00:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>bear</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13:00:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>elephant</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13:00:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>bear</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13:00:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13:17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13:17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13:17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13:17:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>bird</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13:17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13:18:02</t>
         </is>
       </c>
     </row>
